--- a/ykdtest/data/ykdtest.xlsx
+++ b/ykdtest/data/ykdtest.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
   <si>
     <t>id</t>
   </si>
@@ -78,6 +78,15 @@
   </si>
   <si>
     <t>{"code":"0",</t>
+  </si>
+  <si>
+    <t>002</t>
+  </si>
+  <si>
+    <t>鱼开店登录密码错误</t>
+  </si>
+  <si>
+    <t>{"username":"13600130244","password":"123456","code":"ynzyq","fromApp":"web"}</t>
   </si>
 </sst>
 </file>
@@ -1017,13 +1026,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="2"/>
   <cols>
     <col min="2" max="2" width="15.3636363636364" customWidth="1"/>
     <col min="3" max="3" width="28.7272727272727" customWidth="1"/>
@@ -1086,9 +1095,33 @@
         <v>16</v>
       </c>
     </row>
+    <row r="3" ht="140" spans="1:7">
+      <c r="A3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" display="https://ykdtest01.ynzyq.net/om-auth/api/auth/login" tooltip="https://ykdtest01.ynzyq.net/om-auth/api/auth/login"/>
+    <hyperlink ref="C3" r:id="rId1" display="https://ykdtest01.ynzyq.net/om-auth/api/auth/login" tooltip="https://ykdtest01.ynzyq.net/om-auth/api/auth/login"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
